--- a/geomapper/BLS_Zillow_Geo.xlsx
+++ b/geomapper/BLS_Zillow_Geo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathano/Documents/misc/PythonProjects/market_data_parser/zillow_geography/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathano/Documents/misc/PythonProjects/SO_reportdata_updater/geomapper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA9CBD1-4345-D743-8A8E-73E942E81C9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F908B9-239E-444A-8BBD-955D4AA7394B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4460" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11060" yWindow="460" windowWidth="30000" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -3344,7 +3344,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3359,6 +3359,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF6A8759"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3399,7 +3405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3407,6 +3413,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3725,8 +3732,8 @@
   <dimension ref="A1:G950"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A378" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G799" sqref="G799"/>
+      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D373" activeCellId="16" sqref="A1:G1 A3:G7 A9:G9 A11:G18 A20:G40 A42:G114 A116:G119 A121:G167 A169:G197 A199:G203 A205:G212 A214:G234 A1:G950 A320:G344 A346:G354 A356:G358 A362:G373 A375:G376 A379:G417 A419:G420 A422:G450 A452:G480 A482:G536 A538:G548 A550:G551 A553:G554 A556:G556 A558:G563 A565:G576 A578:G728 A730:G762 A764:G798 A800:G837 A839:G950"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4841,7 +4848,7 @@
         <v>51</v>
       </c>
       <c r="D57">
-        <v>39140</v>
+        <v>39150</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>53</v>
@@ -5981,7 +5988,7 @@
         <v>115</v>
       </c>
       <c r="D114" s="5">
-        <v>71950</v>
+        <v>14860</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>901</v>
@@ -6015,7 +6022,7 @@
         <v>115</v>
       </c>
       <c r="D116" s="5">
-        <v>73450</v>
+        <v>25540</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>903</v>
@@ -6035,7 +6042,7 @@
         <v>115</v>
       </c>
       <c r="D117">
-        <v>75700</v>
+        <v>35300</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>117</v>
@@ -6055,7 +6062,7 @@
         <v>115</v>
       </c>
       <c r="D118">
-        <v>76450</v>
+        <v>35980</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>1042</v>
@@ -6075,7 +6082,7 @@
         <v>115</v>
       </c>
       <c r="D119">
-        <v>78400</v>
+        <v>45860</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>119</v>
@@ -8679,7 +8686,7 @@
         <v>233</v>
       </c>
       <c r="D251">
-        <v>36860</v>
+        <v>36837</v>
       </c>
       <c r="E251" s="3" t="s">
         <v>927</v>
@@ -9428,7 +9435,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>395087</v>
       </c>
@@ -9447,8 +9454,9 @@
       <c r="F289" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G289" s="7"/>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>395107</v>
       </c>
@@ -9468,7 +9476,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>395151</v>
       </c>
@@ -9488,7 +9496,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>395192</v>
       </c>
@@ -9508,7 +9516,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>395196</v>
       </c>
@@ -9528,7 +9536,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>395205</v>
       </c>
@@ -9548,7 +9556,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>395207</v>
       </c>
@@ -9568,7 +9576,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>753864</v>
       </c>
@@ -9579,7 +9587,7 @@
         <v>290</v>
       </c>
       <c r="D296">
-        <v>11680</v>
+        <v>49060</v>
       </c>
       <c r="E296" s="3" t="s">
         <v>298</v>
@@ -9588,7 +9596,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>394342</v>
       </c>
@@ -9608,7 +9616,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>394481</v>
       </c>
@@ -9628,7 +9636,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>394536</v>
       </c>
@@ -9648,7 +9656,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>394569</v>
       </c>
@@ -9668,7 +9676,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>394627</v>
       </c>
@@ -9688,7 +9696,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>394643</v>
       </c>
@@ -9708,7 +9716,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>394673</v>
       </c>
@@ -9728,7 +9736,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>394701</v>
       </c>
@@ -10761,7 +10769,7 @@
         <v>346</v>
       </c>
       <c r="D356">
-        <v>70900</v>
+        <v>12700</v>
       </c>
       <c r="E356" s="3" t="s">
         <v>348</v>
@@ -10781,7 +10789,7 @@
         <v>346</v>
       </c>
       <c r="D357">
-        <v>71650</v>
+        <v>14460</v>
       </c>
       <c r="E357" s="3" t="s">
         <v>941</v>
@@ -10863,7 +10871,7 @@
         <v>346</v>
       </c>
       <c r="D362">
-        <v>76600</v>
+        <v>38340</v>
       </c>
       <c r="E362" s="3" t="s">
         <v>349</v>
@@ -10883,7 +10891,7 @@
         <v>346</v>
       </c>
       <c r="D363">
-        <v>78100</v>
+        <v>44140</v>
       </c>
       <c r="E363" s="3" t="s">
         <v>238</v>
@@ -10903,7 +10911,7 @@
         <v>346</v>
       </c>
       <c r="D364">
-        <v>78500</v>
+        <v>47240</v>
       </c>
       <c r="E364" s="3" t="s">
         <v>351</v>
@@ -10923,7 +10931,7 @@
         <v>346</v>
       </c>
       <c r="D365">
-        <v>79600</v>
+        <v>49340</v>
       </c>
       <c r="E365" s="3" t="s">
         <v>347</v>
@@ -11083,7 +11091,7 @@
         <v>360</v>
       </c>
       <c r="D373">
-        <v>70750</v>
+        <v>12620</v>
       </c>
       <c r="E373" s="3" t="s">
         <v>361</v>
@@ -11117,7 +11125,7 @@
         <v>360</v>
       </c>
       <c r="D375">
-        <v>74650</v>
+        <v>30340</v>
       </c>
       <c r="E375" s="3" t="s">
         <v>947</v>
@@ -11137,7 +11145,7 @@
         <v>360</v>
       </c>
       <c r="D376">
-        <v>76750</v>
+        <v>38860</v>
       </c>
       <c r="E376" s="3" t="s">
         <v>948</v>
@@ -14589,7 +14597,7 @@
         <v>517</v>
       </c>
       <c r="D551">
-        <v>72700</v>
+        <v>18180</v>
       </c>
       <c r="E551" s="3" t="s">
         <v>519</v>
@@ -14623,7 +14631,7 @@
         <v>517</v>
       </c>
       <c r="D553">
-        <v>73750</v>
+        <v>28300</v>
       </c>
       <c r="E553" s="3" t="s">
         <v>520</v>
@@ -14643,7 +14651,7 @@
         <v>517</v>
       </c>
       <c r="D554">
-        <v>73900</v>
+        <v>29060</v>
       </c>
       <c r="E554" s="3" t="s">
         <v>521</v>
@@ -14677,7 +14685,7 @@
         <v>517</v>
       </c>
       <c r="D556">
-        <v>74950</v>
+        <v>31700</v>
       </c>
       <c r="E556" s="3" t="s">
         <v>516</v>
@@ -16138,13 +16146,13 @@
       <c r="C630" t="s">
         <v>577</v>
       </c>
-      <c r="D630">
-        <v>19380</v>
-      </c>
-      <c r="E630" s="3" t="s">
+      <c r="D630" s="6">
+        <v>19430</v>
+      </c>
+      <c r="E630" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="F630" t="s">
+      <c r="F630" s="6" t="s">
         <v>577</v>
       </c>
     </row>
@@ -18233,7 +18241,7 @@
         <v>683</v>
       </c>
       <c r="D735" s="5">
-        <v>77200</v>
+        <v>39300</v>
       </c>
       <c r="E735" s="5" t="s">
         <v>1100</v>
@@ -21135,7 +21143,7 @@
         <v>807</v>
       </c>
       <c r="D881">
-        <v>71050</v>
+        <v>12740</v>
       </c>
       <c r="E881" s="3" t="s">
         <v>809</v>
@@ -21155,7 +21163,7 @@
         <v>807</v>
       </c>
       <c r="D882">
-        <v>71350</v>
+        <v>13540</v>
       </c>
       <c r="E882" s="3" t="s">
         <v>810</v>
@@ -21175,7 +21183,7 @@
         <v>807</v>
       </c>
       <c r="D883">
-        <v>72400</v>
+        <v>15540</v>
       </c>
       <c r="E883" s="3" t="s">
         <v>1017</v>
@@ -21195,7 +21203,7 @@
         <v>807</v>
       </c>
       <c r="D884">
-        <v>77650</v>
+        <v>40860</v>
       </c>
       <c r="E884" s="3" t="s">
         <v>808</v>

--- a/geomapper/BLS_Zillow_Geo.xlsx
+++ b/geomapper/BLS_Zillow_Geo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathano/Documents/misc/PythonProjects/SO_reportdata_updater/geomapper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F908B9-239E-444A-8BBD-955D4AA7394B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA68F06-BA83-9C4E-9CA2-AB77245515B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11060" yWindow="460" windowWidth="30000" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21380" yWindow="460" windowWidth="30000" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -3732,8 +3732,8 @@
   <dimension ref="A1:G950"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D373" activeCellId="16" sqref="A1:G1 A3:G7 A9:G9 A11:G18 A20:G40 A42:G114 A116:G119 A121:G167 A169:G197 A199:G203 A205:G212 A214:G234 A1:G950 A320:G344 A346:G354 A356:G358 A362:G373 A375:G376 A379:G417 A419:G420 A422:G450 A452:G480 A482:G536 A538:G548 A550:G551 A553:G554 A556:G556 A558:G563 A565:G576 A578:G728 A730:G762 A764:G798 A800:G837 A839:G950"/>
+      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D296" sqref="D296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/geomapper/BLS_Zillow_Geo.xlsx
+++ b/geomapper/BLS_Zillow_Geo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathano/Documents/misc/PythonProjects/SO_reportdata_updater/geomapper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA68F06-BA83-9C4E-9CA2-AB77245515B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2AC287-7235-154D-B475-2879F9BFF312}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21380" yWindow="460" windowWidth="30000" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54440" yWindow="580" windowWidth="30000" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -3732,8 +3732,8 @@
   <dimension ref="A1:G950"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D296" sqref="D296"/>
+      <pane ySplit="1" topLeftCell="A868" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E884" sqref="E884"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/geomapper/BLS_Zillow_Geo.xlsx
+++ b/geomapper/BLS_Zillow_Geo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathano/Documents/misc/PythonProjects/SO_reportdata_updater/geomapper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2AC287-7235-154D-B475-2879F9BFF312}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E8D6E9-549F-234F-BBBB-6836F365CEAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54440" yWindow="580" windowWidth="30000" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16620" yWindow="-21140" windowWidth="32340" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4683" uniqueCount="1103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4684" uniqueCount="1103">
   <si>
     <t>United States</t>
   </si>
@@ -3728,12 +3728,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G950"/>
+  <dimension ref="A1:G951"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A868" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E884" sqref="E884"/>
+      <pane ySplit="1" topLeftCell="A526" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C539" sqref="C539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3767,7 +3766,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>102001</v>
       </c>
@@ -3881,7 +3880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D8" s="6">
         <v>10760</v>
       </c>
@@ -3915,7 +3914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D10" s="6">
         <v>12120</v>
       </c>
@@ -4089,7 +4088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D19" s="6">
         <v>22840</v>
       </c>
@@ -4523,7 +4522,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D41" s="6">
         <v>26260</v>
       </c>
@@ -5997,7 +5996,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="115" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D115" s="6">
         <v>72850</v>
       </c>
@@ -6091,7 +6090,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="120" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D120" s="6">
         <v>78700</v>
       </c>
@@ -7045,7 +7044,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="168" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D168" s="6">
         <v>21640</v>
       </c>
@@ -7639,7 +7638,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="198" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D198" s="6">
         <v>16140</v>
       </c>
@@ -7753,7 +7752,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="204" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D204" s="6">
         <v>22700</v>
       </c>
@@ -7927,7 +7926,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="213" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D213" s="6">
         <v>37800</v>
       </c>
@@ -8361,7 +8360,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D235" s="6">
         <v>16460</v>
       </c>
@@ -10036,7 +10035,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="319" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D319" s="6">
         <v>16420</v>
       </c>
@@ -10550,7 +10549,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="345" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D345" s="6">
         <v>27660</v>
       </c>
@@ -10744,7 +10743,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="355" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D355" s="6">
         <v>70450</v>
       </c>
@@ -10818,7 +10817,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="359" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D359" s="6">
         <v>74500</v>
       </c>
@@ -10832,7 +10831,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="360" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D360" s="6">
         <v>75550</v>
       </c>
@@ -10846,7 +10845,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="361" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D361" s="6">
         <v>76150</v>
       </c>
@@ -11100,7 +11099,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="374" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D374" s="6">
         <v>72250</v>
       </c>
@@ -11154,7 +11153,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="377" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D377" s="6">
         <v>77950</v>
       </c>
@@ -11168,7 +11167,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="378" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D378" s="6">
         <v>78850</v>
       </c>
@@ -11962,7 +11961,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="418" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D418" s="6">
         <v>21860</v>
       </c>
@@ -12016,7 +12015,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="421" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D421" s="6">
         <v>24330</v>
       </c>
@@ -12610,7 +12609,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="451" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D451" s="6">
         <v>39500</v>
       </c>
@@ -13204,7 +13203,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="481" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D481" s="6">
         <v>48500</v>
       </c>
@@ -14318,7 +14317,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="537" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D537" s="6">
         <v>71500</v>
       </c>
@@ -14552,18 +14551,24 @@
         <v>507</v>
       </c>
     </row>
-    <row r="549" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A549" s="6">
+    <row r="549" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A549" s="5">
         <v>394383</v>
       </c>
-      <c r="B549" s="6" t="s">
+      <c r="B549" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C549" s="6" t="s">
+      <c r="C549" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="G549" s="6" t="s">
-        <v>1033</v>
+      <c r="D549" s="5">
+        <v>13620</v>
+      </c>
+      <c r="E549" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="F549" s="5" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.2">
@@ -14606,7 +14611,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="552" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D552" s="6">
         <v>73050</v>
       </c>
@@ -14660,7 +14665,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="555" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D555" s="6">
         <v>74350</v>
       </c>
@@ -14694,7 +14699,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="557" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D557" s="6">
         <v>76900</v>
       </c>
@@ -14828,7 +14833,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="564" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D564" s="6">
         <v>16100</v>
       </c>
@@ -15082,7 +15087,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="577" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D577" s="6">
         <v>40760</v>
       </c>
@@ -18116,7 +18121,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="729" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D729" s="6">
         <v>41260</v>
       </c>
@@ -18790,7 +18795,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="763" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D763" s="6">
         <v>15140</v>
       </c>
@@ -19504,7 +19509,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="799" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D799" s="6">
         <v>14300</v>
       </c>
@@ -20278,7 +20283,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="838" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D838" s="6">
         <v>37770</v>
       </c>
@@ -22532,12 +22537,12 @@
         <v>862</v>
       </c>
     </row>
+    <row r="951" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B951"/>
+      <c r="E951"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G950" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G950" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C876">
     <sortCondition ref="C1:C876"/>
     <sortCondition ref="B1:B876"/>
